--- a/config_8.3/act_ty_zp1_config.xlsx
+++ b/config_8.3/act_ty_zp1_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="779" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="779"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -312,9 +312,6 @@
     <t>礼包不限购</t>
   </si>
   <si>
-    <t>act_ty_zp1_005</t>
-  </si>
-  <si>
     <t>line|</t>
   </si>
   <si>
@@ -819,6 +816,10 @@
   </si>
   <si>
     <t>美的空调</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_zp1_006</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1252,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1339,7 +1340,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1409,10 +1410,10 @@
         <v>1628524799</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
@@ -1447,22 +1448,22 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -1471,10 +1472,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="6"/>
@@ -1487,16 +1488,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="F3" s="12">
         <v>12088</v>
@@ -1508,16 +1509,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>39</v>
       </c>
       <c r="F4" s="12">
         <v>12089</v>
@@ -1528,16 +1529,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="F5" s="12">
         <v>12090</v>
@@ -1548,16 +1549,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="F6" s="12">
         <v>12091</v>
@@ -1568,16 +1569,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="F7" s="12">
         <v>12092</v>
@@ -1616,31 +1617,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1651,16 +1652,16 @@
         <v>10599</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="6">
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -1669,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1680,17 +1681,17 @@
         <v>10600</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="6">
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="G3" s="6">
         <v>0</v>
       </c>
@@ -1698,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1709,17 +1710,17 @@
         <v>10601</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="6">
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="G4" s="6">
         <v>0</v>
       </c>
@@ -1727,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1738,17 +1739,17 @@
         <v>10602</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="G5" s="6">
         <v>0</v>
       </c>
@@ -1756,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1767,17 +1768,17 @@
         <v>10603</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="6">
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="G6" s="6">
         <v>0</v>
       </c>
@@ -1785,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1796,17 +1797,17 @@
         <v>10604</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="G7" s="6">
         <v>0</v>
       </c>
@@ -1814,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1837,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1853,22 +1854,22 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -1877,10 +1878,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="6"/>
@@ -1893,16 +1894,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="F3" s="12">
         <v>12094</v>
@@ -1914,16 +1915,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>39</v>
       </c>
       <c r="F4" s="12">
         <v>12095</v>
@@ -1934,16 +1935,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="F5" s="12">
         <v>12096</v>
@@ -1954,16 +1955,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="F6" s="12">
         <v>12097</v>
@@ -1974,16 +1975,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="F7" s="12">
         <v>12098</v>
@@ -2019,31 +2020,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2054,16 +2055,16 @@
         <v>10605</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="6">
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2072,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2083,16 +2084,16 @@
         <v>10606</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="6">
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2101,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2112,16 +2113,16 @@
         <v>10607</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="6">
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2130,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2141,16 +2142,16 @@
         <v>10608</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2159,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2170,16 +2171,16 @@
         <v>10609</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="6">
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -2188,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2199,16 +2200,16 @@
         <v>10610</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -2217,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>

--- a/config_8.3/act_ty_zp1_config.xlsx
+++ b/config_8.3/act_ty_zp1_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="779"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="779" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
   <si>
     <t>line</t>
   </si>
@@ -643,24 +643,6 @@
   </si>
   <si>
     <t>cjlb_Iphone12_1</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_yxb_5","act_ty_zp1_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_198y","ty_icon_yxb_4","act_ty_zp1_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_98y","ty_icon_yxb_2","act_ty_zp1_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","ty_icon_yxb_2","act_ty_zp1_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_30y","ty_icon_yxb_3","act_ty_zp1_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_6y","ty_icon_yxb_3","act_ty_zp1_cjq",</t>
   </si>
   <si>
     <r>
@@ -1253,7 +1235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1410,10 +1392,10 @@
         <v>1628524799</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
@@ -1838,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1881,7 +1863,7 @@
         <v>76</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="6"/>
@@ -2002,7 +1984,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E23" sqref="E23:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2061,7 +2043,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>59</v>
@@ -2090,7 +2072,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>63</v>
@@ -2119,7 +2101,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>66</v>
@@ -2148,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>69</v>
@@ -2177,7 +2159,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>72</v>
@@ -2206,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>75</v>

--- a/config_8.3/act_ty_zp1_config.xlsx
+++ b/config_8.3/act_ty_zp1_config.xlsx
@@ -1285,7 +1285,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1348,7 +1348,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="9">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>12</v>
@@ -1870,7 +1870,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1917,7 +1917,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="6"/>
       <c r="F2" s="12">
-        <v>12099</v>
+        <v>12100</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1937,7 +1937,7 @@
         <v>34</v>
       </c>
       <c r="F3" s="12">
-        <v>12094</v>
+        <v>12005</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -1958,7 +1958,7 @@
         <v>38</v>
       </c>
       <c r="F4" s="12">
-        <v>12095</v>
+        <v>12006</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1978,7 +1978,7 @@
         <v>41</v>
       </c>
       <c r="F5" s="12">
-        <v>12096</v>
+        <v>12007</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1998,7 +1998,7 @@
         <v>44</v>
       </c>
       <c r="F6" s="12">
-        <v>12097</v>
+        <v>12008</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -2018,7 +2018,7 @@
         <v>48</v>
       </c>
       <c r="F7" s="12">
-        <v>12098</v>
+        <v>12009</v>
       </c>
     </row>
   </sheetData>

--- a/config_8.3/act_ty_zp1_config.xlsx
+++ b/config_8.3/act_ty_zp1_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="779" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="779"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -88,6 +88,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>活动规则</t>
@@ -106,6 +107,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>活动时间不用改</t>
@@ -124,6 +126,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>客户端自己算</t>
@@ -163,6 +166,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>活动时间：</t>
@@ -181,6 +185,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -199,6 +204,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日</t>
@@ -217,6 +223,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -235,6 +242,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日</t>
@@ -253,6 +261,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -272,6 +281,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>活动期间购买礼包赠送抽奖券，使用抽奖券可参与抽奖。</t>
@@ -291,6 +301,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>请及时使用您的抽奖券，活动结束后未使用的抽奖券视为放弃。</t>
@@ -323,6 +334,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -333,6 +345,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -375,6 +388,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -385,6 +399,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -400,6 +415,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -410,6 +426,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -425,6 +442,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -435,6 +453,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -447,6 +466,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -457,6 +477,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -472,6 +493,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -482,6 +504,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -494,6 +517,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -504,6 +528,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -519,6 +544,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -529,6 +555,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -544,6 +571,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -554,6 +582,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -653,6 +682,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>活动时间：</t>
@@ -671,6 +701,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -689,6 +720,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日</t>
@@ -707,6 +739,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -725,6 +758,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日</t>
@@ -743,6 +777,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -762,6 +797,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>活动期间购买礼包赠送抽奖券，使用抽奖券可参与抽奖。</t>
@@ -781,6 +817,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>请及时使用您的抽奖券，活动结束后未使用的抽奖券视为放弃。</t>
@@ -809,7 +846,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -821,6 +858,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -838,17 +876,28 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1235,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1299,7 +1348,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="9">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>12</v>
@@ -1820,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
